--- a/src/main/resources/static/template/Company.xlsx
+++ b/src/main/resources/static/template/Company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501BD2D-D8A7-4796-B4D7-913D42AD1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA96D69-8098-446A-A472-3F8113A7B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
